--- a/biology/Médecine/Classe_ATC_L01/Classe_ATC_L01.xlsx
+++ b/biology/Médecine/Classe_ATC_L01/Classe_ATC_L01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC L01, dénommée « Agents antinéoplasiques », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QL01[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique L de la classification, intitulé « Antinéoplasiques et agents immunomodulants ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC L01, dénommée « Agents antinéoplasiques », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QL01. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique L de la classification, intitulé « Antinéoplasiques et agents immunomodulants ».
 </t>
         </is>
       </c>
@@ -513,82 +525,330 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>L01AA Analogues de moutarde azotée
-L01AA01 Cyclophosphamide
+          <t>L01AA Analogues de moutarde azotée</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>L01AA01 Cyclophosphamide
 L01AA02 Chlorambucil
 L01AA03 Melphalan
 L01AA05 Chlorméthine
 L01AA06 Ifosfamide
 L01AA07 Trofosfamide
 L01AA08 Prednimustine
-L01AA09 Bendamustine
-L01AB Sulfonates d'alkyle
-L01AB01 Busulfan
+L01AA09 Bendamustine</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classe_ATC_L01</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_L01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>L01A Agents alkylants</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>L01AB Sulfonates d'alkyle</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L01AB01 Busulfan
 L01AB02 Tréosulfan
-L01AB03 Mannosulfan
-L01AC Imines d'éthylène
-L01AC01 Thiotepa
+L01AB03 Mannosulfan</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_L01</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_L01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>L01A Agents alkylants</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>L01AC Imines d'éthylène</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L01AC01 Thiotepa
 L01AC02 Triaziquone
-L01AC03 Carboquone
-L01AD Nitrosourées
-L01AD01 Carmustine
+L01AC03 Carboquone</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classe_ATC_L01</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_L01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>L01A Agents alkylants</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>L01AD Nitrosourées</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L01AD01 Carmustine
 L01AD02 Lomustine
 L01AD03 Sémustine
 L01AD04 Streptozocine
 L01AD05 Fotémustine
 L01AD06 Nimustine
 L01AD07 Ranimustine
-L01AD08 Uramustine
-L01AG Époxydes
-L01AG01 Étoglucide
-L01AX Autres agents alkylants
-L01AX01 Mitobronitol
+L01AD08 Uramustine</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classe_ATC_L01</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_L01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>L01A Agents alkylants</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>L01AG Époxydes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>L01AG01 Étoglucide</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Classe_ATC_L01</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_L01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>L01A Agents alkylants</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>L01AX Autres agents alkylants</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>L01AX01 Mitobronitol
 L01AX02 Pipobroman
 L01AX03 Témozolomide
 L01AX04 Dacarbazine</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Classe_ATC_L01</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_L01</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Classe_ATC_L01</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_L01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>L01B Antimétabolites</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L01BA Analogues de l'acide folique
-L01BA01 Méthotrexate
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>L01BA Analogues de l'acide folique</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>L01BA01 Méthotrexate
 L01BA03 Raltitrexed
 L01BA04 Pémétrexed
-L01BA05 Pralatrexate
-L01BB Analogues de la purine
-L01BB02 Mercaptopurine
+L01BA05 Pralatrexate</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Classe_ATC_L01</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_L01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>L01B Antimétabolites</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>L01BB Analogues de la purine</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>L01BB02 Mercaptopurine
 L01BB03 Tioguanine
 L01BB04 Cladribine
 L01BB05 Fludarabine
 L01BB06 Clofarabine
-L01BB07 Nélarabine
-L01BC  Analogues de la pyrimidine
-L01BC01 Cytarabine
+L01BB07 Nélarabine</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Classe_ATC_L01</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_L01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>L01B Antimétabolites</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>L01BC  Analogues de la pyrimidine</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>L01BC01 Cytarabine
 L01BC02 Fluorouracile
 L01BC03 Tégafur
 L01BC04 Carmofur
@@ -603,84 +863,264 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Classe_ATC_L01</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_L01</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Classe_ATC_L01</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_L01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>L01C alcaloïdes végétaux et autres produits naturels</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L01CA Alcaloïdes de Vinca et analogues
-L01CA01 Vinblastine
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>L01CA Alcaloïdes de Vinca et analogues</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>L01CA01 Vinblastine
 L01CA02 Vincristine
 L01CA03 Vindésine
 L01CA04 Vinorelbine
 L01CA05 Vinflunine
-L01CA06 Vintafolide
-L01CB Dérivés de la podophyllotoxine
-L01CB01 Étoposide
-L01CB02 Téniposide
-L01CC Dérivés de la colchicine
-L01CC01 Démécolcine
-L01CD Taxanes
-L01CD01 Paclitaxel
+L01CA06 Vintafolide</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Classe_ATC_L01</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_L01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>L01C alcaloïdes végétaux et autres produits naturels</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>L01CB Dérivés de la podophyllotoxine</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>L01CB01 Étoposide
+L01CB02 Téniposide</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Classe_ATC_L01</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_L01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>L01C alcaloïdes végétaux et autres produits naturels</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>L01CC Dérivés de la colchicine</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>L01CC01 Démécolcine</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Classe_ATC_L01</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_L01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>L01C alcaloïdes végétaux et autres produits naturels</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>L01CD Taxanes</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>L01CD01 Paclitaxel
 L01CD02 Docétaxel
 L01CD03 Paclitaxel poliglumex
-L01CD04 Cabazitaxel
-L01CX Autres alcaloïdes végétaux et produits naturels
-L01CX01 Trabectédine</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Classe_ATC_L01</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_L01</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+L01CD04 Cabazitaxel</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Classe_ATC_L01</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_L01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>L01C alcaloïdes végétaux et autres produits naturels</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>L01CX Autres alcaloïdes végétaux et produits naturels</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>L01CX01 Trabectédine</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Classe_ATC_L01</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_L01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>L01D Antibiotiques cytotoxiques et substances apparentées</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L01DA Actinomycines
-L01DA01 Dactinomycine
-L01DB Anthracyclines et substances apparentées
-L01DB01 Doxorubicine
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>L01DA Actinomycines</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>L01DA01 Dactinomycine</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Classe_ATC_L01</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_L01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>L01D Antibiotiques cytotoxiques et substances apparentées</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>L01DB Anthracyclines et substances apparentées</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>L01DB01 Doxorubicine
 L01DB02 Daunorubicine
 L01DB03 Épirubicine
 L01DB04 Aclarubicine
@@ -690,51 +1130,158 @@
 L01DB08 Pirarubicine
 L01DB09 Valrubicine
 L01DB10 Amrubicine
-L01DB11 Pixantrone
-L01DC Autres antibiotiques cytotoxiques
-L01DC01 Bléomycine
+L01DB11 Pixantrone</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Classe_ATC_L01</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_L01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>L01D Antibiotiques cytotoxiques et substances apparentées</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>L01DC Autres antibiotiques cytotoxiques</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>L01DC01 Bléomycine
 L01DC02 Plicamycine
 L01DC03 Mitomycine
 L01DC04 Ixabepilone</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Classe_ATC_L01</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_L01</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Classe_ATC_L01</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_L01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>L01X Autres agents antinéoplasiques</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>L01XA Composés du platine
-L01XA01 Cisplatine
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>L01XA Composés du platine</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>L01XA01 Cisplatine
 L01XA02 Carboplatine
 L01XA03 Oxaliplatine
 L01XA04 Satraplatine
-L01XA05 Polyplatillène
-L01XB Méthylhydrazines
-L01XB01 Procarbazine
-L01XC Anticorps monoclonaux
-L01XC01 Édrécolomab
+L01XA05 Polyplatillène</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Classe_ATC_L01</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_L01</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>L01X Autres agents antinéoplasiques</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>L01XB Méthylhydrazines</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>L01XB01 Procarbazine</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Classe_ATC_L01</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_L01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>L01X Autres agents antinéoplasiques</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>L01XC Anticorps monoclonaux</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>L01XC01 Édrécolomab
 L01XC02 Rituximab
 L01XC03 Trastuzumab
 L01XC05 Gemtuzumab ozogamicine
@@ -763,16 +1310,84 @@
 L01XC29 Bermekimab
 L01XC31 Avélumab
 L01XC32 Atezolizumab
-L01XC33 Cemiplimab
-L01XD Sensibilisants utilisés en photochimiothérapie/radiothérapie
-L01XD01 Porfimer sodium
+L01XC33 Cemiplimab</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Classe_ATC_L01</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_L01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>L01X Autres agents antinéoplasiques</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>L01XD Sensibilisants utilisés en photochimiothérapie/radiothérapie</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>L01XD01 Porfimer sodium
 L01XD03 Aminolévulinate de méthyle
 L01XD04 Acide aminolévulinique
 L01XD05 Témoporfine
 L01XD06 Éfaproxiral
-L01XD07 Padéliporfin
-L01XE Inhibiteurs de protéine kinase
-L01XE01 Imatinib
+L01XD07 Padéliporfin</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Classe_ATC_L01</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_L01</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>L01X Autres agents antinéoplasiques</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>L01XE Inhibiteurs de protéine kinase</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>L01XE01 Imatinib
 L01XE02 Géfitinib
 L01XE03 Erlotinib
 L01XE04 Sunitinib
@@ -819,9 +1434,43 @@
 L01XE47 Dacomitinib
 L01XE48 Icotinib
 L01XE50 Abemaciclib
-« QL01XE91 » Tocéranib
-L01XX Autres agents antinéoplasiques
-L01XX01 Amsacrine
+« QL01XE91 » Tocéranib</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Classe_ATC_L01</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_L01</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>L01X Autres agents antinéoplasiques</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>L01XX Autres agents antinéoplasiques</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>L01XX01 Amsacrine
 L01XX02 Asparaginase
 L01XX03 Altrétamine
 L01XX05 Hydroxycarbamide
@@ -869,9 +1518,43 @@
 L01XX58 Épacadostat
 L01XX59 Énasidénib
 L01XX60 Talazoparib
-L01XX61 Copanlisib
-L01XY Associations d'agents antinéoplasiques
-L01XY01 Cytarabine et daunorubicine</t>
+L01XX61 Copanlisib</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Classe_ATC_L01</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_L01</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>L01X Autres agents antinéoplasiques</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>L01XY Associations d'agents antinéoplasiques</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>L01XY01 Cytarabine et daunorubicine</t>
         </is>
       </c>
     </row>
